--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Rt</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rt_95_min</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Rt_95_max</t>
         </is>
@@ -476,9 +481,12 @@
         <v>44145.99998842592</v>
       </c>
       <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.91</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -493,9 +501,12 @@
         <v>44138.99998842592</v>
       </c>
       <c r="D3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.49</v>
       </c>
     </row>
@@ -510,9 +521,12 @@
         <v>44132.99998842592</v>
       </c>
       <c r="D4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E4" t="n">
         <v>1.08</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.81</v>
       </c>
     </row>
@@ -527,9 +541,12 @@
         <v>44125.99998842592</v>
       </c>
       <c r="D5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.45</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.83</v>
       </c>
     </row>
@@ -544,9 +561,12 @@
         <v>44118.99998842592</v>
       </c>
       <c r="D6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E6" t="n">
         <v>1.49</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.85</v>
       </c>
     </row>
@@ -561,9 +581,12 @@
         <v>44111.99998842592</v>
       </c>
       <c r="D7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E7" t="n">
         <v>1.09</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -578,9 +601,12 @@
         <v>44104.99998842592</v>
       </c>
       <c r="D8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E8" t="n">
         <v>1.03</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -595,9 +621,12 @@
         <v>44097.99998842592</v>
       </c>
       <c r="D9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.97</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -612,9 +641,12 @@
         <v>44090.99998842592</v>
       </c>
       <c r="D10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.88</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -629,9 +661,12 @@
         <v>44083.99998842592</v>
       </c>
       <c r="D11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.88</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -646,9 +681,12 @@
         <v>44076.99998842592</v>
       </c>
       <c r="D12" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.79</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -663,9 +701,12 @@
         <v>44069.99998842592</v>
       </c>
       <c r="D13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.71</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.53</v>
       </c>
     </row>
@@ -680,9 +721,12 @@
         <v>44062.99998842592</v>
       </c>
       <c r="D14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.86</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.43</v>
       </c>
     </row>
@@ -697,9 +741,12 @@
         <v>44055.99998842592</v>
       </c>
       <c r="D15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.52</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.24</v>
       </c>
     </row>
@@ -714,9 +761,12 @@
         <v>44048.99998842592</v>
       </c>
       <c r="D16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.67</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -731,9 +781,12 @@
         <v>44041.99998842592</v>
       </c>
       <c r="D17" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.75</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,321 +472,341 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44145.99998842592</v>
+        <v>44152.99998842592</v>
       </c>
       <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.08</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44138.99998842592</v>
+        <v>44145.99998842592</v>
       </c>
       <c r="D3" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F3" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44126</v>
+        <v>44132</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44139</v>
+        <v>44145</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44132.99998842592</v>
+        <v>44138.99998842592</v>
       </c>
       <c r="D4" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="E4" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44119</v>
+        <v>44126</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44125.99998842592</v>
+        <v>44132.99998842592</v>
       </c>
       <c r="D5" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="E5" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44125</v>
+        <v>44132</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44118.99998842592</v>
+        <v>44125.99998842592</v>
       </c>
       <c r="D6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="E6" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44111.99998842592</v>
+        <v>44118.99998842592</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44104.99998842592</v>
+        <v>44111.99998842592</v>
       </c>
       <c r="D8" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44097.99998842592</v>
+        <v>44104.99998842592</v>
       </c>
       <c r="D9" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="F9" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44090.99998842592</v>
+        <v>44097.99998842592</v>
       </c>
       <c r="D10" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="E10" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F10" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44077</v>
+        <v>44084</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44083.99998842592</v>
+        <v>44090.99998842592</v>
       </c>
       <c r="D11" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E11" t="n">
         <v>0.88</v>
       </c>
       <c r="F11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44070</v>
+        <v>44077</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44076.99998842592</v>
+        <v>44083.99998842592</v>
       </c>
       <c r="D12" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="E12" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F12" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44063</v>
+        <v>44070</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44076</v>
+        <v>44083</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44069.99998842592</v>
+        <v>44076.99998842592</v>
       </c>
       <c r="D13" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="E13" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="F13" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44056</v>
+        <v>44063</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44069</v>
+        <v>44076</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44062.99998842592</v>
+        <v>44069.99998842592</v>
       </c>
       <c r="D14" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F14" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44049</v>
+        <v>44056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44055.99998842592</v>
+        <v>44062.99998842592</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="E15" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="F15" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44048.99998842592</v>
+        <v>44055.99998842592</v>
       </c>
       <c r="D16" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E16" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="F16" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>44048.99998842592</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B18" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C18" s="2" t="n">
         <v>44041.99998842592</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>0.96</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E18" t="n">
         <v>0.75</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,341 +472,361 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44152.99998842592</v>
+        <v>44159.99998842592</v>
       </c>
       <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.91</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44145.99998842592</v>
+        <v>44152.99998842592</v>
       </c>
       <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.08</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44138.99998842592</v>
+        <v>44145.99998842592</v>
       </c>
       <c r="D4" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F4" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44126</v>
+        <v>44132</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44139</v>
+        <v>44145</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44132.99998842592</v>
+        <v>44138.99998842592</v>
       </c>
       <c r="D5" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="E5" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44119</v>
+        <v>44126</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44125.99998842592</v>
+        <v>44132.99998842592</v>
       </c>
       <c r="D6" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="E6" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44125</v>
+        <v>44132</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44118.99998842592</v>
+        <v>44125.99998842592</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="E7" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44111.99998842592</v>
+        <v>44118.99998842592</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E8" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44104.99998842592</v>
+        <v>44111.99998842592</v>
       </c>
       <c r="D9" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44097.99998842592</v>
+        <v>44104.99998842592</v>
       </c>
       <c r="D10" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="E10" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="F10" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44090.99998842592</v>
+        <v>44097.99998842592</v>
       </c>
       <c r="D11" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="E11" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F11" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44077</v>
+        <v>44084</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44083.99998842592</v>
+        <v>44090.99998842592</v>
       </c>
       <c r="D12" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E12" t="n">
         <v>0.88</v>
       </c>
       <c r="F12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44070</v>
+        <v>44077</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44076.99998842592</v>
+        <v>44083.99998842592</v>
       </c>
       <c r="D13" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="E13" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F13" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44063</v>
+        <v>44070</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44076</v>
+        <v>44083</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44069.99998842592</v>
+        <v>44076.99998842592</v>
       </c>
       <c r="D14" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="E14" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="F14" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44056</v>
+        <v>44063</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44069</v>
+        <v>44076</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44062.99998842592</v>
+        <v>44069.99998842592</v>
       </c>
       <c r="D15" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F15" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44049</v>
+        <v>44056</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44055.99998842592</v>
+        <v>44062.99998842592</v>
       </c>
       <c r="D16" t="n">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="E16" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="F16" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44048.99998842592</v>
+        <v>44055.99998842592</v>
       </c>
       <c r="D17" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E17" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="F17" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44048.99998842592</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B19" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C19" s="2" t="n">
         <v>44041.99998842592</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>0.96</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E19" t="n">
         <v>0.75</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F19" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,361 +472,381 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44159.99998842592</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="E2" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44152.99998842592</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.91</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44145.99998842592</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="D4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.08</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44138.99998842592</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="D5" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44126</v>
+        <v>44132</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44139</v>
+        <v>44145</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44132.99998842592</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="D6" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="E6" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44119</v>
+        <v>44126</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44125.99998842592</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="D7" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="E7" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44125</v>
+        <v>44132</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44118.99998842592</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="E8" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44111.99998842592</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E9" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44104.99998842592</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="D10" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44097.99998842592</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="E11" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="F11" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44090.99998842592</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="D12" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="E12" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F12" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44077</v>
+        <v>44084</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44083.99998842592</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="D13" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E13" t="n">
         <v>0.88</v>
       </c>
       <c r="F13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44070</v>
+        <v>44077</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44076.99998842592</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="D14" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="E14" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F14" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44063</v>
+        <v>44070</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44076</v>
+        <v>44083</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44069.99998842592</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="D15" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="E15" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="F15" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44056</v>
+        <v>44063</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44069</v>
+        <v>44076</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44062.99998842592</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="D16" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F16" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44049</v>
+        <v>44056</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44055.99998842592</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="D17" t="n">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="E17" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="F17" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44048.99998842592</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E18" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="F18" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>44048.99930555555</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B20" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>44041.99998842592</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C20" s="2" t="n">
+        <v>44041.99930555555</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.96</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>0.75</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,381 +472,421 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44160</v>
+        <v>44173</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44173</v>
+        <v>44186</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44179.99930555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="E2" t="n">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44153</v>
+        <v>44167</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44166</v>
+        <v>44180</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44173.99930555555</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="F3" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44146</v>
+        <v>44160</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44159</v>
+        <v>44173</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
         <v>0.79</v>
       </c>
       <c r="F4" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44139</v>
+        <v>44153</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44152</v>
+        <v>44166</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>0.82</v>
       </c>
       <c r="E5" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44132</v>
+        <v>44146</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44145</v>
+        <v>44159</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="D6" t="n">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="F6" t="n">
-        <v>1.49</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44126</v>
+        <v>44139</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44139</v>
+        <v>44152</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="D7" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="E7" t="n">
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
       <c r="F7" t="n">
-        <v>1.81</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44119</v>
+        <v>44132</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44132</v>
+        <v>44145</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="D8" t="n">
-        <v>1.72</v>
+        <v>1.18</v>
       </c>
       <c r="E8" t="n">
-        <v>1.45</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44112</v>
+        <v>44126</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44125</v>
+        <v>44139</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="E9" t="n">
-        <v>1.49</v>
+        <v>1.08</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44105</v>
+        <v>44119</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44118</v>
+        <v>44132</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="E10" t="n">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44098</v>
+        <v>44112</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44111</v>
+        <v>44125</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="D11" t="n">
-        <v>1.17</v>
+        <v>1.7</v>
       </c>
       <c r="E11" t="n">
-        <v>1.03</v>
+        <v>1.49</v>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44091</v>
+        <v>44105</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44104</v>
+        <v>44118</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="D12" t="n">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="F12" t="n">
-        <v>1.16</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44084</v>
+        <v>44098</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44097</v>
+        <v>44111</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="D13" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="E13" t="n">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44077</v>
+        <v>44091</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44090</v>
+        <v>44104</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="D14" t="n">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="E14" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44070</v>
+        <v>44084</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44083</v>
+        <v>44097</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="D15" t="n">
-        <v>0.92</v>
+        <v>1.01</v>
       </c>
       <c r="E15" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F15" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44063</v>
+        <v>44077</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44076</v>
+        <v>44090</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="D16" t="n">
-        <v>1.14</v>
+        <v>0.95</v>
       </c>
       <c r="E16" t="n">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="F16" t="n">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44056</v>
+        <v>44070</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44069</v>
+        <v>44083</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="D17" t="n">
-        <v>1.18</v>
+        <v>0.92</v>
       </c>
       <c r="E17" t="n">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="F17" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44049</v>
+        <v>44063</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44062</v>
+        <v>44076</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.75</v>
+        <v>1.14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="F18" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44042</v>
+        <v>44056</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44055</v>
+        <v>44069</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="D19" t="n">
-        <v>0.83</v>
+        <v>1.18</v>
       </c>
       <c r="E19" t="n">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F19" t="n">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44049</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44062</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>44055.99930555555</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>44048.99930555555</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B22" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C22" s="2" t="n">
         <v>44041.99930555555</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>0.96</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E22" t="n">
         <v>0.75</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F22" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,421 +472,441 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44173</v>
+        <v>44180</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44179.99930555555</v>
+        <v>44186.99930555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="E2" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44167</v>
+        <v>44173</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44180</v>
+        <v>44186</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44173.99930555555</v>
+        <v>44179.99930555555</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E3" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F3" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="E4" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="E5" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="F5" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="D6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.91</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="D7" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.08</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44126</v>
+        <v>44132</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44139</v>
+        <v>44145</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="D9" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="E9" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44119</v>
+        <v>44126</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="D10" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="E10" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44125</v>
+        <v>44132</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="D11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="E11" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="D12" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E12" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="D13" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="D14" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="E14" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="F14" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="E15" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F15" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44077</v>
+        <v>44084</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="D16" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E16" t="n">
         <v>0.88</v>
       </c>
       <c r="F16" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44070</v>
+        <v>44077</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="D17" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="E17" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F17" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44063</v>
+        <v>44070</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44076</v>
+        <v>44083</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="D18" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="E18" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="F18" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44056</v>
+        <v>44063</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44069</v>
+        <v>44076</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="D19" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F19" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44049</v>
+        <v>44056</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="D20" t="n">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="E20" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="F20" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="D21" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E21" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="F21" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>44048.99930555555</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B23" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C23" s="2" t="n">
         <v>44041.99930555555</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>0.96</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E23" t="n">
         <v>0.75</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F23" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,19 +472,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44180</v>
+        <v>44188</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44186.99930555555</v>
+        <v>44194.99930555555</v>
       </c>
       <c r="D2" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="F2" t="n">
         <v>1.13</v>
@@ -492,421 +492,441 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44173</v>
+        <v>44180</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44179.99930555555</v>
+        <v>44186.99930555555</v>
       </c>
       <c r="D3" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="E3" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44179.99930555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E4" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F4" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="E6" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="F6" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="D7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.91</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="D8" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.08</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="D9" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44126</v>
+        <v>44132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44139</v>
+        <v>44145</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="D10" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="E10" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44119</v>
+        <v>44126</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="D11" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="E11" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="F11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44125</v>
+        <v>44132</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="D12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="E12" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="D13" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E13" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="D14" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="F14" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="D15" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="E15" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="F15" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="D16" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="E16" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F16" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44077</v>
+        <v>44084</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="D17" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E17" t="n">
         <v>0.88</v>
       </c>
       <c r="F17" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44070</v>
+        <v>44077</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="E18" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F18" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44063</v>
+        <v>44070</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44076</v>
+        <v>44083</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="D19" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="E19" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="F19" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44056</v>
+        <v>44063</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44069</v>
+        <v>44076</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="D20" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44049</v>
+        <v>44056</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="D21" t="n">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="E21" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="F21" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="D22" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E22" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="F22" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>44048.99930555555</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B24" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C24" s="2" t="n">
         <v>44041.99930555555</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>0.96</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E24" t="n">
         <v>0.75</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F24" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,39 +472,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44201</v>
+        <v>44208</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44194.99930555555</v>
+        <v>44201.99930555555</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="E2" t="n">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44180</v>
+        <v>44188</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44186.99930555555</v>
+        <v>44194.99930555555</v>
       </c>
       <c r="D3" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="F3" t="n">
         <v>1.13</v>
@@ -512,421 +512,441 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44173</v>
+        <v>44180</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44179.99930555555</v>
+        <v>44186.99930555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="E4" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44179.99930555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E5" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F5" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="E7" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="F7" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="D8" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.91</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="D9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.08</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="D10" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44126</v>
+        <v>44132</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44139</v>
+        <v>44145</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="D11" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="E11" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44119</v>
+        <v>44126</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="D12" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="E12" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44125</v>
+        <v>44132</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="D13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="E13" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E14" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="D15" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="D16" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="E16" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="F16" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="D17" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="E17" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F17" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44077</v>
+        <v>44084</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E18" t="n">
         <v>0.88</v>
       </c>
       <c r="F18" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44070</v>
+        <v>44077</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="D19" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="E19" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F19" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44063</v>
+        <v>44070</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44076</v>
+        <v>44083</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="D20" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="E20" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="F20" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44056</v>
+        <v>44063</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44069</v>
+        <v>44076</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="D21" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F21" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44049</v>
+        <v>44056</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="D22" t="n">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="E22" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="F22" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="D23" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E23" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="F23" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>44048.99930555555</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B25" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C25" s="2" t="n">
         <v>44041.99930555555</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>0.96</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E25" t="n">
         <v>0.75</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F25" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,59 +472,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44195</v>
+        <v>44202</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44208</v>
+        <v>44215</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44201.99930555555</v>
+        <v>44208.99930555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="E2" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44201</v>
+        <v>44208</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44194.99930555555</v>
+        <v>44201.99930555555</v>
       </c>
       <c r="D3" t="n">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="E3" t="n">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44180</v>
+        <v>44188</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44186.99930555555</v>
+        <v>44194.99930555555</v>
       </c>
       <c r="D4" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="F4" t="n">
         <v>1.13</v>
@@ -532,421 +532,441 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44173</v>
+        <v>44180</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44179.99930555555</v>
+        <v>44186.99930555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="E5" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44179.99930555555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E6" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F6" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="E8" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="F8" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="D9" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.91</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="D10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F10" t="n">
         <v>1.08</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="D11" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44126</v>
+        <v>44132</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44139</v>
+        <v>44145</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="D12" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="E12" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44119</v>
+        <v>44126</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="D13" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="E13" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44125</v>
+        <v>44132</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="D14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="E14" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44105</v>
+        <v>44112</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E15" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="D16" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="F16" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44104</v>
+        <v>44111</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="D17" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="E17" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="F17" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="D18" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F18" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44077</v>
+        <v>44084</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="D19" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E19" t="n">
         <v>0.88</v>
       </c>
       <c r="F19" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44070</v>
+        <v>44077</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44083</v>
+        <v>44090</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="D20" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="E20" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F20" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44063</v>
+        <v>44070</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44076</v>
+        <v>44083</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="D21" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="E21" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="F21" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44056</v>
+        <v>44063</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44069</v>
+        <v>44076</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="D22" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F22" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44049</v>
+        <v>44056</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="D23" t="n">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="E23" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="F23" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="D24" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="E24" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="F24" t="n">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>44048.99930555555</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B26" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C26" s="2" t="n">
         <v>44041.99930555555</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>0.96</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E26" t="n">
         <v>0.75</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F26" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,242 +472,242 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44202</v>
+        <v>44035</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44215</v>
+        <v>44048</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44208.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="E2" t="n">
         <v>0.75</v>
       </c>
       <c r="F2" t="n">
-        <v>0.98</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44195</v>
+        <v>44042</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44208</v>
+        <v>44055</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44201.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E3" t="n">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="F3" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44188</v>
+        <v>44049</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44201</v>
+        <v>44062</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44194.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="D4" t="n">
-        <v>1.09</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="n">
-        <v>1.04</v>
+        <v>0.52</v>
       </c>
       <c r="F4" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44180</v>
+        <v>44056</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44193</v>
+        <v>44069</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44186.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="D5" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F5" t="n">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44173</v>
+        <v>44063</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44186</v>
+        <v>44076</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44179.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="F6" t="n">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44166</v>
+        <v>44070</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44179</v>
+        <v>44083</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E7" t="n">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="F7" t="n">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44160</v>
+        <v>44077</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44173</v>
+        <v>44090</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="E8" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44153</v>
+        <v>44084</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44166</v>
+        <v>44097</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="D9" t="n">
-        <v>0.82</v>
+        <v>1.01</v>
       </c>
       <c r="E9" t="n">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="F9" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44146</v>
+        <v>44091</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44159</v>
+        <v>44104</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="D10" t="n">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="E10" t="n">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="F10" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44139</v>
+        <v>44098</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44152</v>
+        <v>44111</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="D11" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="E11" t="n">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="F11" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44132</v>
+        <v>44105</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44145</v>
+        <v>44118</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="D12" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="F12" t="n">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44126</v>
+        <v>44112</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44139</v>
+        <v>44125</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="D13" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="E13" t="n">
-        <v>1.08</v>
+        <v>1.49</v>
       </c>
       <c r="F13" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="14">
@@ -732,242 +732,262 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44112</v>
+        <v>44126</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44125</v>
+        <v>44139</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="D15" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="E15" t="n">
-        <v>1.49</v>
+        <v>1.08</v>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44105</v>
+        <v>44132</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44118</v>
+        <v>44145</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="E16" t="n">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44098</v>
+        <v>44139</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44111</v>
+        <v>44152</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="D17" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="E17" t="n">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="F17" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44091</v>
+        <v>44146</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44104</v>
+        <v>44159</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="D18" t="n">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="E18" t="n">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="F18" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44084</v>
+        <v>44153</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44097</v>
+        <v>44166</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="D19" t="n">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="E19" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="F19" t="n">
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44077</v>
+        <v>44160</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44090</v>
+        <v>44173</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="D20" t="n">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="E20" t="n">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="F20" t="n">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44070</v>
+        <v>44166</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44083</v>
+        <v>44179</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="D21" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E21" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="F21" t="n">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44063</v>
+        <v>44173</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44076</v>
+        <v>44186</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44179.99930555555</v>
       </c>
       <c r="D22" t="n">
-        <v>1.14</v>
+        <v>0.93</v>
       </c>
       <c r="E22" t="n">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="F22" t="n">
-        <v>1.53</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44056</v>
+        <v>44180</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44069</v>
+        <v>44193</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44186.99930555555</v>
       </c>
       <c r="D23" t="n">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="E23" t="n">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F23" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44049</v>
+        <v>44188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44062</v>
+        <v>44201</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44194.99930555555</v>
       </c>
       <c r="D24" t="n">
-        <v>0.75</v>
+        <v>1.09</v>
       </c>
       <c r="E24" t="n">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="F24" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44042</v>
+        <v>44195</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44055</v>
+        <v>44208</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44201.99930555555</v>
       </c>
       <c r="D25" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="E25" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="F25" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44035</v>
+        <v>44202</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44048</v>
+        <v>44215</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44208.99930555555</v>
       </c>
       <c r="D26" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="E26" t="n">
         <v>0.75</v>
       </c>
       <c r="F26" t="n">
-        <v>1.2</v>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44209</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44222</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44215.99930555555</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,6 +990,26 @@
         <v>1.02</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44229</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>44222.99930555555</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,6 +1010,26 @@
         <v>1.06</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44236</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>44229.99930555555</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/computed/Rt_from_ISS_processed.xlsx
+++ b/data/computed/Rt_from_ISS_processed.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,6 +1030,26 @@
         <v>1.07</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44243</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>44236.99930555555</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
